--- a/biology/Botanique/Myrsine/Myrsine.xlsx
+++ b/biology/Botanique/Myrsine/Myrsine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Myrsine est un genre de plantes à fleurs de la famille des Primulaceae, selon la classification phylogénétique. Ce sont des arbustes originaires de régions tropicales et subtropicales. Il comporte près de 300 espèces[2], dont 131 valides[3]. L'espèce type est Myrsine africana L..
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Myrsine est un genre de plantes à fleurs de la famille des Primulaceae, selon la classification phylogénétique. Ce sont des arbustes originaires de régions tropicales et subtropicales. Il comporte près de 300 espèces, dont 131 valides. L'espèce type est Myrsine africana L..
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Espèces principales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Myrsine adamsonii Fosberg &amp; Sachet (Polynésie française)
@@ -541,7 +555,7 @@
 Myrsine kermadecensis 
 Myrsine knudsenii (Rock) Hosaka (Kauaʻi à Hawaï)
 Myrsine laetevirens (Mez) Arechav.
-Myrsine lessertiana A.DC. - Kōlea lau nui (Hawaï)[4]
+Myrsine lessertiana A.DC. - Kōlea lau nui (Hawaï)
 Myrsine linearifolia
 Myrsine mezii Hosaka (Kauaʻi à Hawaï)
 Myrsine niauensis Fosberg &amp; Sachet (Polynésie française)
@@ -556,7 +570,7 @@
 Myrsine reynelii Pipoly (Pérou)
 Myrsine rivularis (Mez) Pipoly (Pérou)
 Myrsine ronuiensis (M.Grant) Fosberg &amp; Sachet (Polynésie française)
-Myrsine sandwicensis A.DC. - Kōlea lau liʻi (Hawaï)[5]
+Myrsine sandwicensis A.DC. - Kōlea lau liʻi (Hawaï)
 Myrsine semiserrata (Chine, Népal)
 Myrsine sodiroana (Mez) Pipoly (Équateur)
 Myrsine tahuatensis Fosbert &amp; Sachet (Polynésie française)
@@ -589,11 +603,12 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Plant List[6] :
-Espèces valides
-Nomenclatures taxonomiques non résolues</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List :
+</t>
         </is>
       </c>
     </row>
